--- a/biology/Médecine/Test_rapide_d'orientation_diagnostique_de_l'infection_par_les_VIH/Test_rapide_d'orientation_diagnostique_de_l'infection_par_les_VIH.xlsx
+++ b/biology/Médecine/Test_rapide_d'orientation_diagnostique_de_l'infection_par_les_VIH/Test_rapide_d'orientation_diagnostique_de_l'infection_par_les_VIH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Test_rapide_d%27orientation_diagnostique_de_l%27infection_par_les_VIH</t>
+          <t>Test_rapide_d'orientation_diagnostique_de_l'infection_par_les_VIH</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les tests rapides d'orientation diagnostique de l'infection par les VIH sont des tests rapides d'orientation diagnostique (TROD) du VIH permettant de déterminer rapidement la séropositivité d'un individu à partir d'une simple goutte de sang ou un échantillon de salive[1]. Ces tests sont parfois vendus en pharmacies d'officine[2] en France.
-Les anticorps du VIH ne sont détectables par ces tests qu'après le 21e jour qui suit la contamination[3], mais le résultat n'est jugé fiable que si la contamination remonte à douze semaines au moins[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les tests rapides d'orientation diagnostique de l'infection par les VIH sont des tests rapides d'orientation diagnostique (TROD) du VIH permettant de déterminer rapidement la séropositivité d'un individu à partir d'une simple goutte de sang ou un échantillon de salive. Ces tests sont parfois vendus en pharmacies d'officine en France.
+Les anticorps du VIH ne sont détectables par ces tests qu'après le 21e jour qui suit la contamination, mais le résultat n'est jugé fiable que si la contamination remonte à douze semaines au moins.
 </t>
         </is>
       </c>
